--- a/biology/Botanique/Boesenbergia_rotunda/Boesenbergia_rotunda.xlsx
+++ b/biology/Botanique/Boesenbergia_rotunda/Boesenbergia_rotunda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boesenbergia rotunda, le Curcuma rond ou Clés chinoises, est une espèce de plantes du genre Boesenbergia et de la famille des Zingiberaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boesenbergia rotunda est une plante herbacée de 30 à 80 cm de haut. Son rhizome globuleux est couvert d'un épiderme brun jaune et sa chair est jaune vif. De ce rhizome partent jusqu'à dix racines tubérisées en fuseau ou en massue de 5 à 30 cm de long. C'est cet ensemble qui a été comparé à des « clés chinoises »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boesenbergia rotunda est une plante herbacée de 30 à 80 cm de haut. Son rhizome globuleux est couvert d'un épiderme brun jaune et sa chair est jaune vif. De ce rhizome partent jusqu'à dix racines tubérisées en fuseau ou en massue de 5 à 30 cm de long. C'est cet ensemble qui a été comparé à des « clés chinoises ».
 Les feuilles, de quatre à cinq, comportent une nervure rouge, un ligule avec deux rainures d’environ 5 mm ; pétiole de 7-16 cm de long, formant un canal ; le limbe, de forme elliptique est vert sur ses deux surfaces, 25-50 × 7-12 cm.
 La fleur émerge de l'intérieur de la tige, 3-7 cm ; spathe conique, 4-5 cm.
 Sépales de 1,5 à 2 cm.  Pétales formant un tube de 4,5 à 5,5 cm, lobes de 1,5–2 cm.
@@ -550,7 +564,9 @@
           <t>Habitat et culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve Boesenbergia rotunda principalement dans les forêts épaisses à une altitude d'environ 1 000 m, entre autres en Inde, Indonésie, Malaisie et Sri Lanka.
 Il est cultivé de l'Inde à la Chine et en Asie du Sud-Est.
@@ -582,7 +598,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Boesenbergia rotunda est connu sous le nom de « Temu kunci » en indonésien. Il est largement utilisé dans la cuisine javanaise en Indonésie.
 En cuisine thaïlandaise on l'appelle krachai (thaï : กระชาย).
@@ -616,9 +634,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011) :
 Boesenbergia cochinchinensis (Gagnep.) Loes. in H.G.A.Engler, Nat. Pflanzenfam. ed. 2, 15a: 571 (1930).
 Boesenbergia pandurata (Roxb.) Schltr., Repert. Spec. Nov. Regni Veg. 12: 316 (1913).
 Curcuma rotunda L., Sp. Pl.: 2 (1753).
